--- a/SourceFiles/DashboardData.xlsx
+++ b/SourceFiles/DashboardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0BFB5E-9B1C-4ECE-9C11-09B4C96B325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493F705-AAE1-4A92-A0B2-67F0B1EA06FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +528,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SourceFiles/DashboardData.xlsx
+++ b/SourceFiles/DashboardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493F705-AAE1-4A92-A0B2-67F0B1EA06FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76394D2-6D37-4625-86FE-B4FF69CA5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,16 +392,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -422,108 +425,107 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>7000</v>
-      </c>
-      <c r="D2">
-        <v>800</v>
+      <c r="B2" s="1">
+        <v>53888755</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4701301.28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2">
         <f>B2-(C2+D2)</f>
-        <v>2200</v>
+        <v>49187453.719999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>10001</v>
-      </c>
-      <c r="C3">
-        <v>7001</v>
-      </c>
-      <c r="D3">
-        <v>801</v>
+      <c r="B3" s="1">
+        <v>53888755</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4770101.28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9696.7505000000001</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E7" si="0">B3-(C3+D3)</f>
-        <v>2199</v>
+        <v>49108956.969499998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>10002</v>
-      </c>
-      <c r="C4">
-        <v>7002</v>
-      </c>
-      <c r="D4">
-        <v>802</v>
+      <c r="B4" s="1">
+        <v>53888755</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7701301.2800000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2266.7505000000001</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2198</v>
+        <v>46185186.969499998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>10003</v>
-      </c>
-      <c r="C5">
-        <v>7003</v>
-      </c>
-      <c r="D5">
-        <v>803</v>
+      <c r="B5" s="1">
+        <v>53888755</v>
+      </c>
+      <c r="C5" s="1">
+        <v>401301.28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>996.75049999999999</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2197</v>
+        <v>53486456.969499998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>10004</v>
-      </c>
-      <c r="C6">
-        <v>7004</v>
-      </c>
-      <c r="D6">
-        <v>804</v>
+      <c r="B6" s="1">
+        <v>53888755</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17701301.280000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9226.7505000000001</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>2196</v>
+        <v>36178226.969499998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>10005</v>
-      </c>
-      <c r="C7">
-        <v>7005</v>
-      </c>
-      <c r="D7">
-        <v>805</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2195</v>
+      <c r="B7" s="1">
+        <v>53888755</v>
+      </c>
+      <c r="C7" s="1">
+        <v>47701301.280000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>922696.75049999997</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5264757</v>
       </c>
     </row>
   </sheetData>

--- a/SourceFiles/DashboardData.xlsx
+++ b/SourceFiles/DashboardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76394D2-6D37-4625-86FE-B4FF69CA5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC8E47-619C-407C-8D49-95219970C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -104,11 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +396,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,13 +432,13 @@
       <c r="B2" s="1">
         <v>53888755</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>4701301.28</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>B2-(C2+D2)</f>
         <v>49187453.719999999</v>
       </c>
@@ -446,14 +450,14 @@
       <c r="B3" s="1">
         <v>53888755</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>4770101.28</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>9696.7505000000001</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">B3-(C3+D3)</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E6" si="0">B3-(C3+D3)</f>
         <v>49108956.969499998</v>
       </c>
     </row>
@@ -464,13 +468,13 @@
       <c r="B4" s="1">
         <v>53888755</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>7701301.2800000003</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>2266.7505000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>46185186.969499998</v>
       </c>
@@ -482,13 +486,13 @@
       <c r="B5" s="1">
         <v>53888755</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>401301.28</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>996.75049999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>53486456.969499998</v>
       </c>
@@ -500,13 +504,13 @@
       <c r="B6" s="1">
         <v>53888755</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>17701301.280000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>9226.7505000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>36178226.969499998</v>
       </c>
@@ -518,10 +522,10 @@
       <c r="B7" s="1">
         <v>53888755</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>47701301.280000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>922696.75049999997</v>
       </c>
       <c r="E7" s="1">

--- a/SourceFiles/DashboardData.xlsx
+++ b/SourceFiles/DashboardData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGupta\Desktop\GFEDTechTitans-Git\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC8E47-619C-407C-8D49-95219970C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49415F-61BE-4175-8C28-29937C6D0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="0" windowWidth="23250" windowHeight="18585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -104,15 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +392,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,110 +422,105 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>53888755</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4701301.28</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <f>B2-(C2+D2)</f>
-        <v>49187453.719999999</v>
+        <v>538887.55000000005</v>
+      </c>
+      <c r="C2" s="1">
+        <v>377013</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>151875</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>53888755</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4770101.28</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9696.7505000000001</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E6" si="0">B3-(C3+D3)</f>
-        <v>49108956.969499998</v>
+        <v>538887.55000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>377013</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30015</v>
+      </c>
+      <c r="E3" s="1">
+        <v>131860</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>53888755</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7701301.2800000003</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2266.7505000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>46185186.969499998</v>
+        <v>538887.55000000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>377013</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50124</v>
+      </c>
+      <c r="E4" s="1">
+        <v>111751</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>53888755</v>
-      </c>
-      <c r="C5" s="2">
-        <v>401301.28</v>
-      </c>
-      <c r="D5" s="2">
-        <v>996.75049999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>53486456.969499998</v>
+        <v>538887.55000000005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>377013</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70264</v>
+      </c>
+      <c r="E5" s="1">
+        <v>91611</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>53888755</v>
-      </c>
-      <c r="C6" s="2">
-        <v>17701301.280000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9226.7505000000001</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>36178226.969499998</v>
+        <v>538887.55000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>377013</v>
+      </c>
+      <c r="D6" s="1">
+        <v>70264</v>
+      </c>
+      <c r="E6" s="1">
+        <v>91611</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>53888755</v>
-      </c>
-      <c r="C7" s="2">
-        <v>47701301.280000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>922696.75049999997</v>
+        <v>538887.55000000005</v>
+      </c>
+      <c r="C7" s="1">
+        <v>377013</v>
+      </c>
+      <c r="D7" s="1">
+        <v>92270</v>
       </c>
       <c r="E7" s="1">
-        <v>5264757</v>
+        <v>69605</v>
       </c>
     </row>
   </sheetData>

--- a/SourceFiles/DashboardData.xlsx
+++ b/SourceFiles/DashboardData.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C7207-1F2F-48D6-AC88-E8E6B5F01016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>MatchedRule</t>
-  </si>
-  <si>
-    <t>MatchedAI</t>
-  </si>
-  <si>
-    <t>Unmatched</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,141 +420,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MatchedRule</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MatchedAI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unmatched</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>538887.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>377013</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>151875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>538887.55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377013</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30015</v>
+      </c>
+      <c r="E3" t="n">
+        <v>131860</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>538887.55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>377013</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50124</v>
+      </c>
+      <c r="E4" t="n">
+        <v>111751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>538887.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>377013</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70264</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91611</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>538887.55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>377013</v>
+      </c>
+      <c r="D6" t="n">
+        <v>70264</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91611</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>538887.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>377013</v>
+      </c>
+      <c r="D7" t="n">
+        <v>92270</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69605</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{ed4075b5-4fd9-4193-82a1-50292a3caef7}" enabled="1" method="Privileged" siteId="{9ff87383-ae93-4e4b-85fd-e21685c0431c}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>